--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serdar\Desktop\DATAMINE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilker/Desktop/data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64807C64-48B2-DE47-B2B7-79FF20F81BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730"/>
+    <workbookView xWindow="15040" yWindow="500" windowWidth="13760" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>B</t>
@@ -41,31 +36,16 @@
     <t>E</t>
   </si>
   <si>
-    <t>F</t>
+    <t>C</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,192 +374,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
-    <col min="9" max="9" width="2.28515625" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" customWidth="1"/>
-    <col min="11" max="11" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+    <col min="11" max="11" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
